--- a/112年英語文競賽員各分項組名單抽籤用.xlsx
+++ b/112年英語文競賽員各分項組名單抽籤用.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Users\Ur1\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{800DEFFA-3692-49C7-A190-D25224898874}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1CEE1B30-4FAF-4BB4-A498-19B2B2B5A010}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="11400" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="國中組" sheetId="7" r:id="rId1"/>
@@ -1089,7 +1089,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1107,9 +1107,6 @@
     </xf>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="19" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1461,10 +1458,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
-  <dimension ref="A1:G29"/>
+  <dimension ref="A1:G28"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="I3" sqref="I3"/>
+      <selection sqref="A1:F1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
@@ -1478,17 +1475,17 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="13" t="s">
+      <c r="A1" s="12" t="s">
         <v>98</v>
       </c>
-      <c r="B1" s="14"/>
-      <c r="C1" s="14"/>
-      <c r="D1" s="14"/>
-      <c r="E1" s="14"/>
-      <c r="F1" s="14"/>
+      <c r="B1" s="13"/>
+      <c r="C1" s="13"/>
+      <c r="D1" s="13"/>
+      <c r="E1" s="13"/>
+      <c r="F1" s="13"/>
     </row>
     <row r="2" spans="1:7" ht="29.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="7" t="s">
+      <c r="A2" s="6" t="s">
         <v>55</v>
       </c>
       <c r="B2" s="3" t="s">
@@ -1509,19 +1506,19 @@
       <c r="G2" s="5"/>
     </row>
     <row r="3" spans="1:7" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="7">
+      <c r="A3" s="6">
         <v>1</v>
       </c>
-      <c r="B3" s="8" t="s">
+      <c r="B3" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="C3" s="8" t="s">
+      <c r="C3" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="D3" s="9" t="s">
+      <c r="D3" s="8" t="s">
         <v>59</v>
       </c>
-      <c r="E3" s="11" t="s">
+      <c r="E3" s="10" t="s">
         <v>83</v>
       </c>
       <c r="F3" s="2" t="s">
@@ -1529,19 +1526,19 @@
       </c>
     </row>
     <row r="4" spans="1:7" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="7">
+      <c r="A4" s="6">
         <v>2</v>
       </c>
-      <c r="B4" s="8" t="s">
+      <c r="B4" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="C4" s="8" t="s">
+      <c r="C4" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="D4" s="9" t="s">
+      <c r="D4" s="8" t="s">
         <v>60</v>
       </c>
-      <c r="E4" s="11" t="s">
+      <c r="E4" s="10" t="s">
         <v>84</v>
       </c>
       <c r="F4" s="2" t="s">
@@ -1549,19 +1546,19 @@
       </c>
     </row>
     <row r="5" spans="1:7" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="7">
+      <c r="A5" s="6">
         <v>3</v>
       </c>
-      <c r="B5" s="8" t="s">
+      <c r="B5" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="C5" s="8" t="s">
+      <c r="C5" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="D5" s="9" t="s">
+      <c r="D5" s="8" t="s">
         <v>61</v>
       </c>
-      <c r="E5" s="11" t="s">
+      <c r="E5" s="10" t="s">
         <v>85</v>
       </c>
       <c r="F5" s="2" t="s">
@@ -1569,19 +1566,19 @@
       </c>
     </row>
     <row r="6" spans="1:7" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="7">
+      <c r="A6" s="6">
         <v>4</v>
       </c>
-      <c r="B6" s="8" t="s">
+      <c r="B6" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="C6" s="8" t="s">
+      <c r="C6" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="D6" s="9" t="s">
+      <c r="D6" s="8" t="s">
         <v>62</v>
       </c>
-      <c r="E6" s="11" t="s">
+      <c r="E6" s="10" t="s">
         <v>86</v>
       </c>
       <c r="F6" s="2" t="s">
@@ -1589,19 +1586,19 @@
       </c>
     </row>
     <row r="7" spans="1:7" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="7">
+      <c r="A7" s="6">
         <v>5</v>
       </c>
-      <c r="B7" s="8" t="s">
+      <c r="B7" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="C7" s="8" t="s">
+      <c r="C7" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="D7" s="9" t="s">
+      <c r="D7" s="8" t="s">
         <v>63</v>
       </c>
-      <c r="E7" s="11" t="s">
+      <c r="E7" s="10" t="s">
         <v>87</v>
       </c>
       <c r="F7" s="2" t="s">
@@ -1609,19 +1606,19 @@
       </c>
     </row>
     <row r="8" spans="1:7" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="7">
+      <c r="A8" s="6">
         <v>6</v>
       </c>
-      <c r="B8" s="8" t="s">
+      <c r="B8" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="C8" s="8" t="s">
+      <c r="C8" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="D8" s="9" t="s">
+      <c r="D8" s="8" t="s">
         <v>64</v>
       </c>
-      <c r="E8" s="11" t="s">
+      <c r="E8" s="10" t="s">
         <v>88</v>
       </c>
       <c r="F8" s="2" t="s">
@@ -1629,19 +1626,19 @@
       </c>
     </row>
     <row r="9" spans="1:7" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="7">
+      <c r="A9" s="6">
         <v>7</v>
       </c>
-      <c r="B9" s="8" t="s">
+      <c r="B9" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="C9" s="8" t="s">
+      <c r="C9" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="D9" s="9" t="s">
+      <c r="D9" s="8" t="s">
         <v>65</v>
       </c>
-      <c r="E9" s="11" t="s">
+      <c r="E9" s="10" t="s">
         <v>25</v>
       </c>
       <c r="F9" s="2" t="s">
@@ -1649,19 +1646,19 @@
       </c>
     </row>
     <row r="10" spans="1:7" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="7">
+      <c r="A10" s="6">
         <v>8</v>
       </c>
-      <c r="B10" s="8" t="s">
+      <c r="B10" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="C10" s="8" t="s">
+      <c r="C10" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="D10" s="9" t="s">
+      <c r="D10" s="8" t="s">
         <v>66</v>
       </c>
-      <c r="E10" s="11" t="s">
+      <c r="E10" s="10" t="s">
         <v>27</v>
       </c>
       <c r="F10" s="2" t="s">
@@ -1669,19 +1666,19 @@
       </c>
     </row>
     <row r="11" spans="1:7" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="7">
+      <c r="A11" s="6">
         <v>9</v>
       </c>
-      <c r="B11" s="8" t="s">
+      <c r="B11" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="C11" s="8" t="s">
+      <c r="C11" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="D11" s="9" t="s">
+      <c r="D11" s="8" t="s">
         <v>67</v>
       </c>
-      <c r="E11" s="11" t="s">
+      <c r="E11" s="10" t="s">
         <v>89</v>
       </c>
       <c r="F11" s="2" t="s">
@@ -1689,19 +1686,19 @@
       </c>
     </row>
     <row r="12" spans="1:7" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="7">
+      <c r="A12" s="6">
         <v>10</v>
       </c>
-      <c r="B12" s="8" t="s">
+      <c r="B12" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="C12" s="8" t="s">
+      <c r="C12" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="D12" s="9" t="s">
+      <c r="D12" s="8" t="s">
         <v>68</v>
       </c>
-      <c r="E12" s="11" t="s">
+      <c r="E12" s="10" t="s">
         <v>30</v>
       </c>
       <c r="F12" s="2" t="s">
@@ -1709,19 +1706,19 @@
       </c>
     </row>
     <row r="13" spans="1:7" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="7">
+      <c r="A13" s="6">
         <v>11</v>
       </c>
-      <c r="B13" s="8" t="s">
+      <c r="B13" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="C13" s="8" t="s">
+      <c r="C13" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="D13" s="9" t="s">
+      <c r="D13" s="8" t="s">
         <v>69</v>
       </c>
-      <c r="E13" s="11" t="s">
+      <c r="E13" s="10" t="s">
         <v>90</v>
       </c>
       <c r="F13" s="2" t="s">
@@ -1729,19 +1726,19 @@
       </c>
     </row>
     <row r="14" spans="1:7" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="7">
+      <c r="A14" s="6">
         <v>12</v>
       </c>
-      <c r="B14" s="8" t="s">
+      <c r="B14" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="C14" s="8" t="s">
+      <c r="C14" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="D14" s="9" t="s">
+      <c r="D14" s="8" t="s">
         <v>33</v>
       </c>
-      <c r="E14" s="11" t="s">
+      <c r="E14" s="10" t="s">
         <v>34</v>
       </c>
       <c r="F14" s="2" t="s">
@@ -1749,19 +1746,19 @@
       </c>
     </row>
     <row r="15" spans="1:7" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="7">
+      <c r="A15" s="6">
         <v>13</v>
       </c>
-      <c r="B15" s="8" t="s">
+      <c r="B15" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="C15" s="8" t="s">
+      <c r="C15" s="7" t="s">
         <v>35</v>
       </c>
-      <c r="D15" s="9" t="s">
+      <c r="D15" s="8" t="s">
         <v>70</v>
       </c>
-      <c r="E15" s="11" t="s">
+      <c r="E15" s="10" t="s">
         <v>91</v>
       </c>
       <c r="F15" s="2" t="s">
@@ -1769,19 +1766,19 @@
       </c>
     </row>
     <row r="16" spans="1:7" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="7">
+      <c r="A16" s="6">
         <v>14</v>
       </c>
-      <c r="B16" s="8" t="s">
+      <c r="B16" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="C16" s="8" t="s">
+      <c r="C16" s="7" t="s">
         <v>36</v>
       </c>
-      <c r="D16" s="9" t="s">
+      <c r="D16" s="8" t="s">
         <v>71</v>
       </c>
-      <c r="E16" s="11" t="s">
+      <c r="E16" s="10" t="s">
         <v>57</v>
       </c>
       <c r="F16" s="2" t="s">
@@ -1789,19 +1786,19 @@
       </c>
     </row>
     <row r="17" spans="1:6" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="7">
+      <c r="A17" s="6">
         <v>15</v>
       </c>
-      <c r="B17" s="8" t="s">
+      <c r="B17" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="C17" s="8" t="s">
+      <c r="C17" s="7" t="s">
         <v>37</v>
       </c>
-      <c r="D17" s="9" t="s">
+      <c r="D17" s="8" t="s">
         <v>72</v>
       </c>
-      <c r="E17" s="11" t="s">
+      <c r="E17" s="10" t="s">
         <v>92</v>
       </c>
       <c r="F17" s="2" t="s">
@@ -1809,19 +1806,19 @@
       </c>
     </row>
     <row r="18" spans="1:6" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="7">
+      <c r="A18" s="6">
         <v>16</v>
       </c>
-      <c r="B18" s="8" t="s">
+      <c r="B18" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="C18" s="8" t="s">
+      <c r="C18" s="7" t="s">
         <v>38</v>
       </c>
-      <c r="D18" s="9" t="s">
+      <c r="D18" s="8" t="s">
         <v>73</v>
       </c>
-      <c r="E18" s="11" t="s">
+      <c r="E18" s="10" t="s">
         <v>93</v>
       </c>
       <c r="F18" s="2" t="s">
@@ -1829,19 +1826,19 @@
       </c>
     </row>
     <row r="19" spans="1:6" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="7">
+      <c r="A19" s="6">
         <v>17</v>
       </c>
-      <c r="B19" s="8" t="s">
+      <c r="B19" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="C19" s="8" t="s">
+      <c r="C19" s="7" t="s">
         <v>56</v>
       </c>
-      <c r="D19" s="9" t="s">
+      <c r="D19" s="8" t="s">
         <v>74</v>
       </c>
-      <c r="E19" s="11" t="s">
+      <c r="E19" s="10" t="s">
         <v>94</v>
       </c>
       <c r="F19" s="2" t="s">
@@ -1849,19 +1846,19 @@
       </c>
     </row>
     <row r="20" spans="1:6" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="7">
+      <c r="A20" s="6">
         <v>18</v>
       </c>
-      <c r="B20" s="8" t="s">
+      <c r="B20" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="C20" s="8" t="s">
+      <c r="C20" s="7" t="s">
         <v>39</v>
       </c>
-      <c r="D20" s="9" t="s">
+      <c r="D20" s="8" t="s">
         <v>75</v>
       </c>
-      <c r="E20" s="11" t="s">
+      <c r="E20" s="10" t="s">
         <v>40</v>
       </c>
       <c r="F20" s="2" t="s">
@@ -1869,19 +1866,19 @@
       </c>
     </row>
     <row r="21" spans="1:6" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="7">
+      <c r="A21" s="6">
         <v>19</v>
       </c>
-      <c r="B21" s="8" t="s">
+      <c r="B21" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="C21" s="8" t="s">
+      <c r="C21" s="7" t="s">
         <v>41</v>
       </c>
-      <c r="D21" s="9" t="s">
+      <c r="D21" s="8" t="s">
         <v>76</v>
       </c>
-      <c r="E21" s="11" t="s">
+      <c r="E21" s="10" t="s">
         <v>42</v>
       </c>
       <c r="F21" s="2" t="s">
@@ -1889,19 +1886,19 @@
       </c>
     </row>
     <row r="22" spans="1:6" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="7">
+      <c r="A22" s="6">
         <v>20</v>
       </c>
-      <c r="B22" s="8" t="s">
+      <c r="B22" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="C22" s="8" t="s">
+      <c r="C22" s="7" t="s">
         <v>43</v>
       </c>
-      <c r="D22" s="9" t="s">
+      <c r="D22" s="8" t="s">
         <v>77</v>
       </c>
-      <c r="E22" s="11" t="s">
+      <c r="E22" s="10" t="s">
         <v>44</v>
       </c>
       <c r="F22" s="2" t="s">
@@ -1909,19 +1906,19 @@
       </c>
     </row>
     <row r="23" spans="1:6" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="7">
+      <c r="A23" s="6">
         <v>21</v>
       </c>
-      <c r="B23" s="8" t="s">
+      <c r="B23" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="C23" s="8" t="s">
+      <c r="C23" s="7" t="s">
         <v>45</v>
       </c>
-      <c r="D23" s="9" t="s">
+      <c r="D23" s="8" t="s">
         <v>78</v>
       </c>
-      <c r="E23" s="11" t="s">
+      <c r="E23" s="10" t="s">
         <v>58</v>
       </c>
       <c r="F23" s="2" t="s">
@@ -1929,19 +1926,19 @@
       </c>
     </row>
     <row r="24" spans="1:6" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="7">
+      <c r="A24" s="6">
         <v>22</v>
       </c>
-      <c r="B24" s="8" t="s">
+      <c r="B24" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="C24" s="8" t="s">
+      <c r="C24" s="7" t="s">
         <v>46</v>
       </c>
-      <c r="D24" s="9" t="s">
+      <c r="D24" s="8" t="s">
         <v>79</v>
       </c>
-      <c r="E24" s="11" t="s">
+      <c r="E24" s="10" t="s">
         <v>95</v>
       </c>
       <c r="F24" s="2" t="s">
@@ -1949,87 +1946,84 @@
       </c>
     </row>
     <row r="25" spans="1:6" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="7">
+      <c r="A25" s="6">
         <v>23</v>
       </c>
-      <c r="B25" s="8" t="s">
+      <c r="B25" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="C25" s="8" t="s">
+      <c r="C25" s="7" t="s">
         <v>48</v>
       </c>
-      <c r="D25" s="9" t="s">
+      <c r="D25" s="8" t="s">
         <v>49</v>
       </c>
-      <c r="E25" s="11" t="s">
+      <c r="E25" s="10" t="s">
         <v>96</v>
       </c>
-      <c r="F25" s="12" t="s">
+      <c r="F25" s="11" t="s">
         <v>47</v>
       </c>
     </row>
     <row r="26" spans="1:6" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="7">
+      <c r="A26" s="6">
         <v>24</v>
       </c>
-      <c r="B26" s="8" t="s">
+      <c r="B26" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="C26" s="8" t="s">
+      <c r="C26" s="7" t="s">
         <v>50</v>
       </c>
-      <c r="D26" s="9" t="s">
+      <c r="D26" s="8" t="s">
         <v>80</v>
       </c>
-      <c r="E26" s="11" t="s">
+      <c r="E26" s="10" t="s">
         <v>51</v>
       </c>
-      <c r="F26" s="12" t="s">
+      <c r="F26" s="11" t="s">
         <v>47</v>
       </c>
     </row>
     <row r="27" spans="1:6" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="7">
+      <c r="A27" s="6">
         <v>25</v>
       </c>
-      <c r="B27" s="8" t="s">
+      <c r="B27" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="C27" s="10" t="s">
+      <c r="C27" s="9" t="s">
         <v>52</v>
       </c>
-      <c r="D27" s="9" t="s">
+      <c r="D27" s="8" t="s">
         <v>81</v>
       </c>
-      <c r="E27" s="11" t="s">
+      <c r="E27" s="10" t="s">
         <v>97</v>
       </c>
-      <c r="F27" s="12" t="s">
+      <c r="F27" s="11" t="s">
         <v>47</v>
       </c>
     </row>
     <row r="28" spans="1:6" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="7">
+      <c r="A28" s="6">
         <v>26</v>
       </c>
-      <c r="B28" s="8" t="s">
+      <c r="B28" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="C28" s="8" t="s">
+      <c r="C28" s="7" t="s">
         <v>53</v>
       </c>
-      <c r="D28" s="9" t="s">
+      <c r="D28" s="8" t="s">
         <v>82</v>
       </c>
-      <c r="E28" s="11" t="s">
+      <c r="E28" s="10" t="s">
         <v>54</v>
       </c>
-      <c r="F28" s="12" t="s">
+      <c r="F28" s="11" t="s">
         <v>47</v>
       </c>
-    </row>
-    <row r="29" spans="1:6" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D29" s="6"/>
     </row>
   </sheetData>
   <mergeCells count="1">
